--- a/Elementos_Guardados/Archivo tablas comparativas 12 modelos.Proporción Dinero invertido vs casas compradas.xlsx
+++ b/Elementos_Guardados/Archivo tablas comparativas 12 modelos.Proporción Dinero invertido vs casas compradas.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\valer\Desktop\Andes\Intersemestral\Big Data\ArchivoPS3\Problem-Set-3\Elementos_Guardados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MAESTRIA UNIANDES\BIG DATA\Problem-Set-3\Elementos_Guardados\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED25E25-B0EA-4EE0-B60A-9CC0EDFE9CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="7310"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Evaluación Modelos Variables 10</t>
   </si>
@@ -63,12 +73,18 @@
   </si>
   <si>
     <t>Este es el resultado que aparecía anoche. Sin embargo, hoy dieron valores diferentes (No cambia el resultado ni el análisis final)</t>
+  </si>
+  <si>
+    <t>RF, n=5</t>
+  </si>
+  <si>
+    <t>RF, n=1000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -238,7 +254,6 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -249,6 +264,16 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -259,15 +284,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -550,37 +566,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" style="5"/>
-    <col min="8" max="8" width="19.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.90625" style="5"/>
+    <col min="1" max="1" width="23.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="34.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="5"/>
+    <col min="9" max="9" width="19.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -588,22 +606,25 @@
         <v>4</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="25" t="s">
+      <c r="J3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -614,20 +635,27 @@
         <v>11404100000000</v>
       </c>
       <c r="D4" s="12">
-        <v>11315310000000</v>
-      </c>
-      <c r="E4" s="13">
+        <f>1.111243*10000000000000</f>
+        <v>11112430000000</v>
+      </c>
+      <c r="E4" s="12">
+        <f>1.083649*10000000000000</f>
+        <v>10836490000000</v>
+      </c>
+      <c r="F4" s="13">
         <v>10899300000000</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="H4" s="12">
+      <c r="G4" s="24">
+        <v>16311770000000</v>
+      </c>
+      <c r="I4" s="12">
         <v>11285670000000</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
@@ -638,69 +666,83 @@
         <v>8994</v>
       </c>
       <c r="D5" s="2">
-        <v>9326</v>
-      </c>
-      <c r="E5" s="15">
+        <v>9396</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9605</v>
+      </c>
+      <c r="F5" s="14">
         <v>8517</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="H5" s="16">
+      <c r="G5" s="3">
+        <v>12483</v>
+      </c>
+      <c r="I5" s="15">
         <v>9295</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J5" s="28"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="17">
-        <f>B4/B5</f>
+      <c r="B6" s="16">
+        <f t="shared" ref="B6:G6" si="0">B4/B5</f>
         <v>1315641677.2554002</v>
       </c>
-      <c r="C6" s="17">
-        <f>C4/C5</f>
+      <c r="C6" s="16">
+        <f t="shared" si="0"/>
         <v>1267967533.9114966</v>
       </c>
-      <c r="D6" s="18">
-        <f>D4/D5</f>
-        <v>1213307956.2513404</v>
-      </c>
-      <c r="E6" s="19">
-        <f>E4/E5</f>
+      <c r="D6" s="17">
+        <f t="shared" si="0"/>
+        <v>1182676670.9237974</v>
+      </c>
+      <c r="E6" s="17">
+        <f t="shared" si="0"/>
+        <v>1128213430.5049453</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
         <v>1279711165.9034872</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="18">
-        <f>H4/H5</f>
+      <c r="G6" s="19">
+        <f t="shared" si="0"/>
+        <v>1306718737.4829769</v>
+      </c>
+      <c r="I6" s="17">
+        <f>I4/I5</f>
         <v>1214165680.4733727</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C7" s="21"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
-      <c r="B9" s="31" t="s">
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="30"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -708,13 +750,14 @@
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
@@ -725,14 +768,16 @@
         <v>11402690000000</v>
       </c>
       <c r="D11" s="12">
-        <v>11131630000000</v>
-      </c>
-      <c r="E11" s="11">
+        <f>1.087469*10000000000000</f>
+        <v>10874690000000</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="11">
         <v>10960310000000</v>
       </c>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
@@ -742,54 +787,57 @@
       <c r="C12" s="10">
         <v>9045</v>
       </c>
-      <c r="D12" s="16">
-        <v>9111</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="D12" s="15">
+        <v>9204</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="10">
         <v>8614</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <f>B11/B12</f>
         <v>1306980656.9760787</v>
       </c>
-      <c r="C13" s="17">
-        <f t="shared" ref="C13:E13" si="0">C11/C12</f>
+      <c r="C13" s="16">
+        <f t="shared" ref="C13:F13" si="1">C11/C12</f>
         <v>1260662244.3338861</v>
       </c>
-      <c r="D13" s="18">
-        <f t="shared" si="0"/>
-        <v>1221779168.0386345</v>
-      </c>
-      <c r="E13" s="17">
-        <f t="shared" si="0"/>
+      <c r="D13" s="17">
+        <f t="shared" si="1"/>
+        <v>1181517818.3398523</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16">
+        <f t="shared" si="1"/>
         <v>1272383329.4636638</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
       <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="31" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
@@ -797,13 +845,14 @@
         <v>4</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -814,13 +863,15 @@
         <v>11398480000000</v>
       </c>
       <c r="D18" s="12">
-        <v>11050420000000</v>
-      </c>
-      <c r="E18" s="11">
+        <f>1.103088*10000000000000</f>
+        <v>11030880000000</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11">
         <v>11043910000000</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>2</v>
       </c>
@@ -830,14 +881,15 @@
       <c r="C19" s="10">
         <v>9062</v>
       </c>
-      <c r="D19" s="16">
-        <v>9085</v>
-      </c>
-      <c r="E19" s="10">
+      <c r="D19" s="15">
+        <v>9213</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="10">
         <v>8697</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -846,53 +898,56 @@
         <v>1305690789.4736843</v>
       </c>
       <c r="C20" s="11">
-        <f t="shared" ref="C20:E20" si="1">C18/C19</f>
+        <f t="shared" ref="C20:F20" si="2">C18/C19</f>
         <v>1257832708.0114765</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" si="1"/>
-        <v>1216336818.9323061</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>1197316834.9071963</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
         <v>1269852822.812464</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="22"/>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="22"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="21"/>
       <c r="C23" s="1">
         <v>11402690000000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D24" s="24"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C31" s="22">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="21">
         <v>11315310000000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="I3:K6"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="J3:L6"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Elementos_Guardados/Archivo tablas comparativas 12 modelos.Proporción Dinero invertido vs casas compradas.xlsx
+++ b/Elementos_Guardados/Archivo tablas comparativas 12 modelos.Proporción Dinero invertido vs casas compradas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MAESTRIA UNIANDES\BIG DATA\Problem-Set-3\Elementos_Guardados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED25E25-B0EA-4EE0-B60A-9CC0EDFE9CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FCA9276-FA12-4581-BC7C-8708DDB261B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -263,7 +269,6 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -286,6 +291,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -570,7 +576,7 @@
   <dimension ref="A2:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -587,18 +593,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
@@ -618,11 +624,11 @@
       <c r="I3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -645,15 +651,15 @@
       <c r="F4" s="13">
         <v>10899300000000</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>16311770000000</v>
       </c>
       <c r="I4" s="12">
         <v>11285670000000</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -680,9 +686,9 @@
       <c r="I5" s="15">
         <v>9295</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -716,9 +722,9 @@
         <f>I4/I5</f>
         <v>1214165680.4733727</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="20"/>
@@ -732,17 +738,17 @@
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
@@ -827,17 +833,17 @@
       <c r="B15" s="21"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="6" t="s">
         <v>3</v>
       </c>
@@ -931,8 +937,21 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="B24" s="5">
+        <v>1315641677.2554002</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1267967533.9114966</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1182676670.9237974</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1128213430.5049453</v>
+      </c>
+      <c r="F24" s="31">
+        <v>1279711165.9034872</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" s="21">
